--- a/biology/Microbiologie/Maladie_opportuniste/Maladie_opportuniste.xlsx
+++ b/biology/Microbiologie/Maladie_opportuniste/Maladie_opportuniste.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">En médecine humaine ou vétérinaire, on appelle maladie opportuniste une maladie due à des germes habituellement peu agressifs mais qui sont susceptibles de provoquer de graves complications en affectant des personnes ayant un système immunitaire très affaibli, comme les personnes subissant une greffe d'organe, une chimiothérapie ou atteintes du SIDA.
 </t>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
